--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04231487449044266</v>
+        <v>0.04431377938692467</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08565889019331993</v>
+        <v>4.813587686683594</v>
       </c>
       <c r="I2" t="n">
-        <v>47.73853330217778</v>
+        <v>-9.189826254501501</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07042730409803891</v>
+        <v>0.04525132216480877</v>
       </c>
       <c r="H3" t="n">
-        <v>44.61355051091516</v>
+        <v>-7.082140266838807</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009718760202446443</v>
+        <v>-0.004013984100506916</v>
       </c>
       <c r="H4" t="n">
-        <v>410.4670884177633</v>
+        <v>-310.8300579558673</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02179192524911338</v>
+        <v>0.02528245319252126</v>
       </c>
       <c r="H5" t="n">
-        <v>474.0229418268277</v>
+        <v>565.9672329208537</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02880682671302267</v>
+        <v>0.01836266350497041</v>
       </c>
       <c r="H6" t="n">
-        <v>-16.91036590481326</v>
+        <v>-47.03522859908454</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05245287342290236</v>
+        <v>0.04048167953056499</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.38388344702986</v>
+        <v>-23.89080394777568</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01844530557312266</v>
+        <v>-0.03874419896777712</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.994973379529564</v>
+        <v>-105.8586796609504</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01084557457682786</v>
+        <v>-0.008741720791396387</v>
       </c>
       <c r="H9" t="n">
-        <v>-49.62085456213779</v>
+        <v>59.39353696687668</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08700051561024037</v>
+        <v>-0.09693825342544379</v>
       </c>
       <c r="H10" t="n">
-        <v>19.66835337810048</v>
+        <v>-33.33761398313414</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06722163600996829</v>
+        <v>-0.07398412036013222</v>
       </c>
       <c r="H11" t="n">
-        <v>-26.94177253936961</v>
+        <v>19.59212815136385</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2504966523892745</v>
+        <v>-0.2225324303338621</v>
       </c>
       <c r="H12" t="n">
-        <v>2.471627475784142</v>
+        <v>8.967804220329887</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3063256273579609</v>
+        <v>-0.3324163756192516</v>
       </c>
       <c r="H13" t="n">
-        <v>11.46684512728782</v>
+        <v>-20.96083823775607</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04459895629388358</v>
+        <v>-0.02604287913974952</v>
       </c>
       <c r="H14" t="n">
-        <v>20.22191426353585</v>
+        <v>29.7982499302573</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05076869532975416</v>
+        <v>0.008403580477210248</v>
       </c>
       <c r="H15" t="n">
-        <v>46.00722072203987</v>
+        <v>124.1681103211719</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1285195201086822</v>
+        <v>0.1182794885734315</v>
       </c>
       <c r="H16" t="n">
-        <v>2.56274767400217</v>
+        <v>-5.609129793604348</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1339812733505585</v>
+        <v>0.1269171858770419</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.470014884506647</v>
+        <v>-9.506779757116151</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1081531925433752</v>
+        <v>0.1142783311011611</v>
       </c>
       <c r="H18" t="n">
-        <v>-13.29204632887555</v>
+        <v>-8.38143557566344</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1324400775175746</v>
+        <v>0.127761031392099</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5808445607181397</v>
+        <v>-4.093276920888729</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0377199871103867</v>
+        <v>0.0251666992917923</v>
       </c>
       <c r="H20" t="n">
-        <v>9.855147039114009</v>
+        <v>-26.70486755209642</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04519934124527118</v>
+        <v>0.06941043298523165</v>
       </c>
       <c r="H21" t="n">
-        <v>-22.12362467833403</v>
+        <v>19.59096706885674</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.05985108447798413</v>
+        <v>-0.07401208302312082</v>
       </c>
       <c r="H22" t="n">
-        <v>-25.043712571032</v>
+        <v>7.308764466275205</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.08261105174059556</v>
+        <v>-0.07525245114147985</v>
       </c>
       <c r="H23" t="n">
-        <v>32.07955419591847</v>
+        <v>-20.31453406654256</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1241755398582565</v>
+        <v>0.1099801663812027</v>
       </c>
       <c r="H24" t="n">
-        <v>5.131486232060931</v>
+        <v>-6.886828429307662</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1367025469989357</v>
+        <v>0.1598671706431533</v>
       </c>
       <c r="H25" t="n">
-        <v>8.347563121038396</v>
+        <v>26.70735653795628</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04680526659056284</v>
+        <v>0.05044056829285298</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.832197211602662</v>
+        <v>1.481688569075823</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09146486106983071</v>
+        <v>0.0899068080799017</v>
       </c>
       <c r="H27" t="n">
-        <v>5.524319604939733</v>
+        <v>3.72677156575148</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09946571379801934</v>
+        <v>-0.08401321649715547</v>
       </c>
       <c r="H28" t="n">
-        <v>56.40729743470847</v>
+        <v>-32.10863964441598</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05734652134869782</v>
+        <v>-0.09693873732094824</v>
       </c>
       <c r="H29" t="n">
-        <v>-19.42569665186675</v>
+        <v>-36.20305196176385</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04883614236451533</v>
+        <v>0.08061527957701278</v>
       </c>
       <c r="H30" t="n">
-        <v>-23.34393613181477</v>
+        <v>26.5384553489482</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06931200418040714</v>
+        <v>0.05451001821571826</v>
       </c>
       <c r="H31" t="n">
-        <v>14.41313376210975</v>
+        <v>-10.02046356563199</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07530240528515718</v>
+        <v>0.08349834395145604</v>
       </c>
       <c r="H32" t="n">
-        <v>-23.36723790085025</v>
+        <v>-15.02650275945227</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.122474076850112</v>
+        <v>0.1118461922945107</v>
       </c>
       <c r="H33" t="n">
-        <v>48.84184934629335</v>
+        <v>35.92585901937252</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.009343202794409245</v>
+        <v>-0.003021708923425605</v>
       </c>
       <c r="H34" t="n">
-        <v>-64.14075858415748</v>
+        <v>-111.5973282564692</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02424180957058784</v>
+        <v>0.002543253418372906</v>
       </c>
       <c r="H35" t="n">
-        <v>-316.2495459457533</v>
+        <v>122.6871428614555</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01212024886996124</v>
+        <v>-0.01282527203172271</v>
       </c>
       <c r="H36" t="n">
-        <v>2151.967558379627</v>
+        <v>-2482.962334578323</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0007265042151004745</v>
+        <v>0.001414960094942574</v>
       </c>
       <c r="H37" t="n">
-        <v>-94.21308839269706</v>
+        <v>111.2707522229052</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09339458660111938</v>
+        <v>0.1128641674169546</v>
       </c>
       <c r="H38" t="n">
-        <v>-12.92470073380429</v>
+        <v>5.227524548446874</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09522221434958177</v>
+        <v>0.1014787226493753</v>
       </c>
       <c r="H39" t="n">
-        <v>11.15937652464081</v>
+        <v>18.46302480226925</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01257824543172509</v>
+        <v>0.01203153017014169</v>
       </c>
       <c r="H40" t="n">
-        <v>323.4732621995315</v>
+        <v>305.0669354527938</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01672181774913789</v>
+        <v>0.02568259534296581</v>
       </c>
       <c r="H41" t="n">
-        <v>11.50297048776857</v>
+        <v>71.25444814297532</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1117607824734504</v>
+        <v>0.1169077193137913</v>
       </c>
       <c r="H42" t="n">
-        <v>10.72536135577814</v>
+        <v>15.82461378502358</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1248806112991339</v>
+        <v>0.1270727624769456</v>
       </c>
       <c r="H43" t="n">
-        <v>3.942009791692441</v>
+        <v>5.766605273878025</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02502859515342041</v>
+        <v>0.03781365682510281</v>
       </c>
       <c r="H44" t="n">
-        <v>-29.86750518873363</v>
+        <v>5.957448863010271</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01109297016825216</v>
+        <v>0.03292585268647224</v>
       </c>
       <c r="H45" t="n">
-        <v>-32.23670037040207</v>
+        <v>101.1331850092742</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06756028443172851</v>
+        <v>0.04648799332327846</v>
       </c>
       <c r="H46" t="n">
-        <v>86.43224400161981</v>
+        <v>28.28336925000987</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07526027007176223</v>
+        <v>0.06012295436664161</v>
       </c>
       <c r="H47" t="n">
-        <v>49.20658557183994</v>
+        <v>19.19623364338651</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05255982153176279</v>
+        <v>0.05422798928842538</v>
       </c>
       <c r="H48" t="n">
-        <v>22.85699312169657</v>
+        <v>26.75628479798734</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05921650872928975</v>
+        <v>0.0645193910199571</v>
       </c>
       <c r="H49" t="n">
-        <v>-14.76708082721345</v>
+        <v>-7.13440967921494</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0190165114432219</v>
+        <v>0.00157071224846759</v>
       </c>
       <c r="H50" t="n">
-        <v>10.09572504948253</v>
+        <v>-90.90639182925533</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04553758555387913</v>
+        <v>0.0143775099409589</v>
       </c>
       <c r="H51" t="n">
-        <v>133.8893753752089</v>
+        <v>-26.15447704044383</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.09574978276189484</v>
+        <v>-0.08852302347825509</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.506412736748352</v>
+        <v>14.48740915419254</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08056542113747876</v>
+        <v>-0.08533288343904034</v>
       </c>
       <c r="H53" t="n">
-        <v>-12.76550924102121</v>
+        <v>7.603404454407194</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.078347320173918</v>
+        <v>0.08205188786766718</v>
       </c>
       <c r="H54" t="n">
-        <v>7.145061547002888</v>
+        <v>12.21129907332394</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09227154556752051</v>
+        <v>0.08292468881285663</v>
       </c>
       <c r="H55" t="n">
-        <v>48.94120599540141</v>
+        <v>33.85386667813378</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02685324697097978</v>
+        <v>0.05528708507196726</v>
       </c>
       <c r="H56" t="n">
-        <v>-23.25278797971997</v>
+        <v>58.0117907002854</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0239845245225454</v>
+        <v>0.016626581560588</v>
       </c>
       <c r="H57" t="n">
-        <v>315.423068887262</v>
+        <v>187.9800902665885</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03184919264501516</v>
+        <v>0.03258494092351518</v>
       </c>
       <c r="H58" t="n">
-        <v>27.34274185886276</v>
+        <v>30.28448685524009</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02672204526102803</v>
+        <v>0.03337624549147861</v>
       </c>
       <c r="H59" t="n">
-        <v>12.85302411033534</v>
+        <v>40.95516268942209</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0306315232643504</v>
+        <v>0.03323841592762432</v>
       </c>
       <c r="H60" t="n">
-        <v>-5.58257197452984</v>
+        <v>2.452813607853184</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03608342734209249</v>
+        <v>0.05423623984327209</v>
       </c>
       <c r="H61" t="n">
-        <v>185.0643609774897</v>
+        <v>328.4742384964268</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05928571702902617</v>
+        <v>0.04802119940148362</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.784052644720106</v>
+        <v>-20.4454659788571</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04620075897640691</v>
+        <v>0.04386787898966219</v>
       </c>
       <c r="H63" t="n">
-        <v>41.76580926770858</v>
+        <v>34.60742861395797</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02377799266742651</v>
+        <v>0.01833743922937944</v>
       </c>
       <c r="H64" t="n">
-        <v>-41.32683594954037</v>
+        <v>-54.75162284642256</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04827313387119866</v>
+        <v>0.05243343130584844</v>
       </c>
       <c r="H65" t="n">
-        <v>-13.89318653032609</v>
+        <v>-6.472289512544452</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08355104347640503</v>
+        <v>0.08793577225891169</v>
       </c>
       <c r="H66" t="n">
-        <v>-10.69227390565921</v>
+        <v>-6.005436484931328</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1196083073481868</v>
+        <v>0.1124820930179695</v>
       </c>
       <c r="H67" t="n">
-        <v>3.604825855770116</v>
+        <v>-2.567907552652692</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05377690570958278</v>
+        <v>-0.03089695793087516</v>
       </c>
       <c r="H68" t="n">
-        <v>54.30749097965143</v>
+        <v>11.34424723199312</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01070296846188097</v>
+        <v>-0.0215147728275465</v>
       </c>
       <c r="H69" t="n">
-        <v>-49.56628655666041</v>
+        <v>-1.380275149604262</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08404223446563869</v>
+        <v>0.09008084438607232</v>
       </c>
       <c r="H70" t="n">
-        <v>-9.277170387850441</v>
+        <v>-2.758545765491966</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.09585168822514072</v>
+        <v>0.07526836716867064</v>
       </c>
       <c r="H71" t="n">
-        <v>5.090399298941379</v>
+        <v>-17.47685505803918</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05492692359696143</v>
+        <v>-0.07377374054753033</v>
       </c>
       <c r="H72" t="n">
-        <v>-2.057919805778386</v>
+        <v>-31.54848551054904</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0733653027896706</v>
+        <v>-0.07309002077838081</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.5386024051779437</v>
+        <v>0.9118024402693418</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1079250199994889</v>
+        <v>0.128232862303398</v>
       </c>
       <c r="H74" t="n">
-        <v>7.982459330342174</v>
+        <v>28.3011097756166</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1240220944921995</v>
+        <v>0.08057541477293849</v>
       </c>
       <c r="H75" t="n">
-        <v>27.32748716874491</v>
+        <v>-17.27711797946692</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01947345739555177</v>
+        <v>0.01409206111307201</v>
       </c>
       <c r="H76" t="n">
-        <v>-23.84434216547409</v>
+        <v>-44.88959189365706</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01916093555130829</v>
+        <v>0.02303565733750857</v>
       </c>
       <c r="H77" t="n">
-        <v>35.80608850792474</v>
+        <v>63.26877729111258</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09645114327749589</v>
+        <v>0.08651897527265037</v>
       </c>
       <c r="H78" t="n">
-        <v>50.05552587933298</v>
+        <v>34.60338459365558</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1105531492037954</v>
+        <v>0.07390246641828278</v>
       </c>
       <c r="H79" t="n">
-        <v>44.11098200354653</v>
+        <v>-3.664824704448837</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1820773522993651</v>
+        <v>-0.1477189587602141</v>
       </c>
       <c r="H80" t="n">
-        <v>9.944513524210141</v>
+        <v>10.80225599671557</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1321935585856279</v>
+        <v>-0.1633148721601642</v>
       </c>
       <c r="H81" t="n">
-        <v>-37.07825645240923</v>
+        <v>22.26507393011026</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1296995385355717</v>
+        <v>0.1434952983243895</v>
       </c>
       <c r="H82" t="n">
-        <v>13.08179746747899</v>
+        <v>25.10997684239036</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2008265099597854</v>
+        <v>0.1863087717574758</v>
       </c>
       <c r="H83" t="n">
-        <v>12.83515758754684</v>
+        <v>4.678309777960448</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05857928571662812</v>
+        <v>0.06307673129675499</v>
       </c>
       <c r="H84" t="n">
-        <v>145.7427140070375</v>
+        <v>164.6096986320413</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04437720854510348</v>
+        <v>0.05678171052557069</v>
       </c>
       <c r="H85" t="n">
-        <v>-27.93092822231954</v>
+        <v>-7.785881408749473</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04431377938692467</v>
+        <v>0.03928371021970611</v>
       </c>
       <c r="H2" t="n">
-        <v>4.813587686683594</v>
+        <v>-7.083831197969451</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.189826254501501</v>
+        <v>45.21246975919157</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04525132216480877</v>
+        <v>0.06120378081178399</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.082140266838807</v>
+        <v>25.67421344941646</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.004013984100506916</v>
+        <v>-0.018539108938213</v>
       </c>
       <c r="H4" t="n">
-        <v>-310.8300579558673</v>
+        <v>-1073.746112098445</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02528245319252126</v>
+        <v>0.06238096074884684</v>
       </c>
       <c r="H5" t="n">
-        <v>565.9672329208537</v>
+        <v>1543.182150897558</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01836266350497041</v>
+        <v>0.02931899468867842</v>
       </c>
       <c r="H6" t="n">
-        <v>-47.03522859908454</v>
+        <v>-15.43308240821518</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04048167953056499</v>
+        <v>0.03544059348977226</v>
       </c>
       <c r="H7" t="n">
-        <v>-23.89080394777568</v>
+        <v>-33.36849880243554</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03874419896777712</v>
+        <v>-0.01037161503968795</v>
       </c>
       <c r="H8" t="n">
-        <v>-105.8586796609504</v>
+        <v>44.8927314306451</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.008741720791396387</v>
+        <v>-0.02599485212289188</v>
       </c>
       <c r="H9" t="n">
-        <v>59.39353696687668</v>
+        <v>-20.74956715828752</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09693825342544379</v>
+        <v>-0.06970307957957617</v>
       </c>
       <c r="H10" t="n">
-        <v>-33.33761398313414</v>
+        <v>4.124099723280551</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07398412036013222</v>
+        <v>-0.06793821490253291</v>
       </c>
       <c r="H11" t="n">
-        <v>19.59212815136385</v>
+        <v>26.16297590730446</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2225324303338621</v>
+        <v>-0.2318843439180897</v>
       </c>
       <c r="H12" t="n">
-        <v>8.967804220329887</v>
+        <v>5.14218101998676</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3324163756192516</v>
+        <v>-0.2949552863068522</v>
       </c>
       <c r="H13" t="n">
-        <v>-20.96083823775607</v>
+        <v>-7.329365491908443</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02604287913974952</v>
+        <v>-0.07248458257264322</v>
       </c>
       <c r="H14" t="n">
-        <v>29.7982499302573</v>
+        <v>-95.39101350386515</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008403580477210248</v>
+        <v>0.001293213872535024</v>
       </c>
       <c r="H15" t="n">
-        <v>124.1681103211719</v>
+        <v>103.7191927446945</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1182794885734315</v>
+        <v>0.1290471052555283</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.609129793604348</v>
+        <v>2.983777742016493</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1269171858770419</v>
+        <v>0.1264717999989978</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.506779757116151</v>
+        <v>-9.824344333390025</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1142783311011611</v>
+        <v>0.1109481945788235</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.38143557566344</v>
+        <v>-11.05125341928895</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.127761031392099</v>
+        <v>0.1423782222973404</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.093276920888729</v>
+        <v>6.879449778859779</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0251666992917923</v>
+        <v>0.05238202104627122</v>
       </c>
       <c r="H20" t="n">
-        <v>-26.70486755209642</v>
+        <v>52.55664344221179</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06941043298523165</v>
+        <v>0.06256955005424401</v>
       </c>
       <c r="H21" t="n">
-        <v>19.59096706885674</v>
+        <v>7.804442044647271</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.07401208302312082</v>
+        <v>-0.0630859155962649</v>
       </c>
       <c r="H22" t="n">
-        <v>7.308764466275205</v>
+        <v>20.9924755182562</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.07525245114147985</v>
+        <v>-0.07537832687715189</v>
       </c>
       <c r="H23" t="n">
-        <v>-20.31453406654256</v>
+        <v>-20.51578572357087</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1099801663812027</v>
+        <v>0.1214710005323355</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.886828429307662</v>
+        <v>2.841725791061934</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1598671706431533</v>
+        <v>0.1422446092902181</v>
       </c>
       <c r="H25" t="n">
-        <v>26.70735653795628</v>
+        <v>12.74008511208895</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05044056829285298</v>
+        <v>0.06864390289273559</v>
       </c>
       <c r="H26" t="n">
-        <v>1.481688569075823</v>
+        <v>38.10508904423892</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0899068080799017</v>
+        <v>0.07550719331837963</v>
       </c>
       <c r="H27" t="n">
-        <v>3.72677156575148</v>
+        <v>-12.88627012599463</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.08401321649715547</v>
+        <v>-0.04274480759868867</v>
       </c>
       <c r="H28" t="n">
-        <v>-32.10863964441598</v>
+        <v>32.78488053226422</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09693873732094824</v>
+        <v>-0.07919836721646518</v>
       </c>
       <c r="H29" t="n">
-        <v>-36.20305196176385</v>
+        <v>-11.27707687750131</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08061527957701278</v>
+        <v>0.0519509502697816</v>
       </c>
       <c r="H30" t="n">
-        <v>26.5384553489482</v>
+        <v>-18.45475156148083</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05451001821571826</v>
+        <v>0.04956714101311402</v>
       </c>
       <c r="H31" t="n">
-        <v>-10.02046356563199</v>
+        <v>-18.17965730470301</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08349834395145604</v>
+        <v>0.0839831733104256</v>
       </c>
       <c r="H32" t="n">
-        <v>-15.02650275945227</v>
+        <v>-14.53310798960525</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1118461922945107</v>
+        <v>0.1049957188706221</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92585901937252</v>
+        <v>27.60052879821003</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.003021708923425605</v>
+        <v>0.003522969919607256</v>
       </c>
       <c r="H34" t="n">
-        <v>-111.5973282564692</v>
+        <v>-86.47883047946455</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.002543253418372906</v>
+        <v>0.01655421379083321</v>
       </c>
       <c r="H35" t="n">
-        <v>122.6871428614555</v>
+        <v>247.6721944099407</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01282527203172271</v>
+        <v>0.004052127665321132</v>
       </c>
       <c r="H36" t="n">
-        <v>-2482.962334578323</v>
+        <v>652.8937848241521</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001414960094942574</v>
+        <v>0.01506212807822087</v>
       </c>
       <c r="H37" t="n">
-        <v>111.2707522229052</v>
+        <v>219.976184576555</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1128641674169546</v>
+        <v>0.1024096917410322</v>
       </c>
       <c r="H38" t="n">
-        <v>5.227524548446874</v>
+        <v>-4.519577840260474</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1014787226493753</v>
+        <v>0.08510408494815715</v>
       </c>
       <c r="H39" t="n">
-        <v>18.46302480226925</v>
+        <v>-0.6522050851806585</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01203153017014169</v>
+        <v>0.02740406013038355</v>
       </c>
       <c r="H40" t="n">
-        <v>305.0669354527938</v>
+        <v>822.6157021595059</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02568259534296581</v>
+        <v>0.04863942471396408</v>
       </c>
       <c r="H41" t="n">
-        <v>71.25444814297532</v>
+        <v>224.3331807454239</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1169077193137913</v>
+        <v>0.1093641216223649</v>
       </c>
       <c r="H42" t="n">
-        <v>15.82461378502358</v>
+        <v>8.350904655399097</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1270727624769456</v>
+        <v>0.1219161033385663</v>
       </c>
       <c r="H43" t="n">
-        <v>5.766605273878025</v>
+        <v>1.474557780853309</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03781365682510281</v>
+        <v>0.01901941646131767</v>
       </c>
       <c r="H44" t="n">
-        <v>5.957448863010271</v>
+        <v>-46.70579318933977</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03292585268647224</v>
+        <v>0.02082640547857481</v>
       </c>
       <c r="H45" t="n">
-        <v>101.1331850092742</v>
+        <v>27.22164877817643</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04648799332327846</v>
+        <v>0.0558076554697642</v>
       </c>
       <c r="H46" t="n">
-        <v>28.28336925000987</v>
+        <v>54.00092716026504</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06012295436664161</v>
+        <v>0.05007300035638575</v>
       </c>
       <c r="H47" t="n">
-        <v>19.19623364338651</v>
+        <v>-0.7282141641283327</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05422798928842538</v>
+        <v>0.05937936393623345</v>
       </c>
       <c r="H48" t="n">
-        <v>26.75628479798734</v>
+        <v>38.79746723028645</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0645193910199571</v>
+        <v>0.05582788613737956</v>
       </c>
       <c r="H49" t="n">
-        <v>-7.13440967921494</v>
+        <v>-19.64447400153448</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00157071224846759</v>
+        <v>0.01047673758537307</v>
       </c>
       <c r="H50" t="n">
-        <v>-90.90639182925533</v>
+        <v>-39.34513046419259</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0143775099409589</v>
+        <v>0.02878588105931734</v>
       </c>
       <c r="H51" t="n">
-        <v>-26.15447704044383</v>
+        <v>47.84955457558868</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08852302347825509</v>
+        <v>-0.1005095727870571</v>
       </c>
       <c r="H52" t="n">
-        <v>14.48740915419254</v>
+        <v>2.90849051334353</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08533288343904034</v>
+        <v>-0.09712611110614215</v>
       </c>
       <c r="H53" t="n">
-        <v>7.603404454407194</v>
+        <v>-5.166046699938506</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08205188786766718</v>
+        <v>0.0811168749654911</v>
       </c>
       <c r="H54" t="n">
-        <v>12.21129907332394</v>
+        <v>10.93260805072724</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08292468881285663</v>
+        <v>0.0998975973452785</v>
       </c>
       <c r="H55" t="n">
-        <v>33.85386667813378</v>
+        <v>61.25088761801489</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05528708507196726</v>
+        <v>0.04708117306956108</v>
       </c>
       <c r="H56" t="n">
-        <v>58.0117907002854</v>
+        <v>34.55910101441503</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.016626581560588</v>
+        <v>0.01869128610458377</v>
       </c>
       <c r="H57" t="n">
-        <v>187.9800902665885</v>
+        <v>223.7417288684268</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03258494092351518</v>
+        <v>0.05634468125061601</v>
       </c>
       <c r="H58" t="n">
-        <v>30.28448685524009</v>
+        <v>125.2831423260615</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03337624549147861</v>
+        <v>0.03190254778729745</v>
       </c>
       <c r="H59" t="n">
-        <v>40.95516268942209</v>
+        <v>34.73141593213877</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03323841592762432</v>
+        <v>0.01505244141420111</v>
       </c>
       <c r="H60" t="n">
-        <v>2.452813607853184</v>
+        <v>-53.60293408956986</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.05423623984327209</v>
+        <v>0.03766304504648783</v>
       </c>
       <c r="H61" t="n">
-        <v>328.4742384964268</v>
+        <v>197.5435722016105</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04802119940148362</v>
+        <v>0.05507919843926328</v>
       </c>
       <c r="H62" t="n">
-        <v>-20.4454659788571</v>
+        <v>-8.752800415095932</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04386787898966219</v>
+        <v>0.04928731244212137</v>
       </c>
       <c r="H63" t="n">
-        <v>34.60742861395797</v>
+        <v>51.23681709549148</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01833743922937944</v>
+        <v>0.03322875230072785</v>
       </c>
       <c r="H64" t="n">
-        <v>-54.75162284642256</v>
+        <v>-18.00670215516127</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05243343130584844</v>
+        <v>0.0615934778436878</v>
       </c>
       <c r="H65" t="n">
-        <v>-6.472289512544452</v>
+        <v>9.866869670941997</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08793577225891169</v>
+        <v>0.08100674193448053</v>
       </c>
       <c r="H66" t="n">
-        <v>-6.005436484931328</v>
+        <v>-13.41187830260216</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1124820930179695</v>
+        <v>0.1050022977493404</v>
       </c>
       <c r="H67" t="n">
-        <v>-2.567907552652692</v>
+        <v>-9.046913095196048</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.03089695793087516</v>
+        <v>-0.02116900701428254</v>
       </c>
       <c r="H68" t="n">
-        <v>11.34424723199312</v>
+        <v>39.2576364184059</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0215147728275465</v>
+        <v>-0.01339087482422184</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.380275149604262</v>
+        <v>36.90053875747415</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09008084438607232</v>
+        <v>0.08851271618061617</v>
       </c>
       <c r="H70" t="n">
-        <v>-2.758545765491966</v>
+        <v>-4.45132593605931</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07526836716867064</v>
+        <v>0.06097822295221921</v>
       </c>
       <c r="H71" t="n">
-        <v>-17.47685505803918</v>
+        <v>-33.14436169828681</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07377374054753033</v>
+        <v>-0.05998773815280403</v>
       </c>
       <c r="H72" t="n">
-        <v>-31.54848551054904</v>
+        <v>-6.966192098130263</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.07309002077838081</v>
+        <v>-0.07827481482809583</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9118024402693418</v>
+        <v>-6.117226853106361</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.128232862303398</v>
+        <v>0.1275261980563029</v>
       </c>
       <c r="H74" t="n">
-        <v>28.3011097756166</v>
+        <v>27.59406943110226</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.08057541477293849</v>
+        <v>0.1186797855745743</v>
       </c>
       <c r="H75" t="n">
-        <v>-17.27711797946692</v>
+        <v>21.84279693717349</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01409206111307201</v>
+        <v>0.02512954906205114</v>
       </c>
       <c r="H76" t="n">
-        <v>-44.88959189365706</v>
+        <v>-1.724829801273578</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02303565733750857</v>
+        <v>0.02164218710591856</v>
       </c>
       <c r="H77" t="n">
-        <v>63.26877729111258</v>
+        <v>53.39234192094349</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08651897527265037</v>
+        <v>0.07738345381488025</v>
       </c>
       <c r="H78" t="n">
-        <v>34.60338459365558</v>
+        <v>20.39063988223576</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07390246641828278</v>
+        <v>0.1069891698533084</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.664824704448837</v>
+        <v>39.46517527856352</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1477189587602141</v>
+        <v>-0.1446587338575151</v>
       </c>
       <c r="H80" t="n">
-        <v>10.80225599671557</v>
+        <v>12.65012413601456</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1633148721601642</v>
+        <v>-0.1893285503452016</v>
       </c>
       <c r="H81" t="n">
-        <v>22.26507393011026</v>
+        <v>9.883033496360735</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1434952983243895</v>
+        <v>0.1316083541619547</v>
       </c>
       <c r="H82" t="n">
-        <v>25.10997684239036</v>
+        <v>14.74604627285313</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1863087717574758</v>
+        <v>0.1605878061021735</v>
       </c>
       <c r="H83" t="n">
-        <v>4.678309777960448</v>
+        <v>-9.773115054354134</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06307673129675499</v>
+        <v>0.06832131258123465</v>
       </c>
       <c r="H84" t="n">
-        <v>164.6096986320413</v>
+        <v>186.610950830866</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05678171052557069</v>
+        <v>0.07250504931734673</v>
       </c>
       <c r="H85" t="n">
-        <v>-7.785881408749473</v>
+        <v>17.74899266557595</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>